--- a/NewFormatMasterPrL1.xlsx
+++ b/NewFormatMasterPrL1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\korne\PycharmProjects\PresentationLayouts1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71C6CBDB-54F4-4899-9AAA-145F11FEFD17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C81B29-7063-4CDB-AB8C-D8511D44A8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{4D17BE42-3F45-4451-B22E-477E702760AC}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="211">
   <si>
     <t>Gantt</t>
   </si>
@@ -708,6 +708,9 @@
   </si>
   <si>
     <t>Progress_on_7q</t>
+  </si>
+  <si>
+    <t>111111111111111111111</t>
   </si>
 </sst>
 </file>
@@ -1533,8 +1536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C90E08F9-F7C9-4E71-AA19-9FDE065D06ED}">
   <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99:E109"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1902,7 +1905,7 @@
         <v>Array_oneGantt</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
